--- a/projects/m0_office_lhs.xlsx
+++ b/projects/m0_office_lhs.xlsx
@@ -7481,8 +7481,8 @@
   <dimension ref="A1:Z171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F65" sqref="F65"/>
+      <pane ySplit="3" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9484,7 +9484,7 @@
     </row>
     <row r="83" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B83" s="37" t="s">
         <v>764</v>
@@ -10218,7 +10218,7 @@
     </row>
     <row r="117" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B117" s="37" t="s">
         <v>856</v>
